--- a/biology/Botanique/Clavaria/Clavaria.xlsx
+++ b/biology/Botanique/Clavaria/Clavaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavaria (du latin clava, « massue ») est un genre de champignons basidiomycètes de la famille des Clavariaceae. Dans la classification classique, il regroupait un nombre important d'espèces terrestres, plus d'un millier, tous saprophytes et en forme de pilon ou de touffe ramifiée. Les affinités morphologiques qui semblaient unir ces champignons se sont révélées trompeuses et les « clavaires » sont désormais réparties dans de nombreux autres genres et familles.
 Le sporophore est dressé soit en forme de pédoncule (étroit ou en massue), soit ramifié, soit arbustif.
@@ -512,7 +524,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune de ces espèces n'est vraiment toxique, mais leur faible consistance et leur côté fibreux les rendent inintéressantes pour la consommation.[réf. nécessaire].
 </t>
@@ -543,9 +557,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (10 oct. 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (10 oct. 2015) :
 Capitoclavaria Lloyd
 Holocoryne (Fr.) Bonord.
 Stichoclavaria Ulbr.</t>
@@ -576,7 +592,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clavaria acuta Sowerby 1803
